--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dhh-Boc.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dhh-Boc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.08864570572383</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H2">
-        <v>3.08864570572383</v>
+        <v>11.334982</v>
       </c>
       <c r="I2">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J2">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.15915482617023</v>
+        <v>2.274082666666667</v>
       </c>
       <c r="N2">
-        <v>2.15915482617023</v>
+        <v>6.822248</v>
       </c>
       <c r="O2">
-        <v>0.08088570585249001</v>
+        <v>0.08425229461217887</v>
       </c>
       <c r="P2">
-        <v>0.08088570585249001</v>
+        <v>0.08425229461217888</v>
       </c>
       <c r="Q2">
-        <v>6.668864281843564</v>
+        <v>8.592228697726222</v>
       </c>
       <c r="R2">
-        <v>6.668864281843564</v>
+        <v>77.330058279536</v>
       </c>
       <c r="S2">
-        <v>0.05252373069816558</v>
+        <v>0.05342263766271248</v>
       </c>
       <c r="T2">
-        <v>0.05252373069816558</v>
+        <v>0.05342263766271248</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.08864570572383</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H3">
-        <v>3.08864570572383</v>
+        <v>11.334982</v>
       </c>
       <c r="I3">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J3">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.6764389670167</v>
+        <v>22.688844</v>
       </c>
       <c r="N3">
-        <v>22.6764389670167</v>
+        <v>68.066532</v>
       </c>
       <c r="O3">
-        <v>0.8494989566456617</v>
+        <v>0.8405970447414548</v>
       </c>
       <c r="P3">
-        <v>0.8494989566456617</v>
+        <v>0.8405970447414549</v>
       </c>
       <c r="Q3">
-        <v>70.03948583658466</v>
+        <v>85.72587944693601</v>
       </c>
       <c r="R3">
-        <v>70.03948583658466</v>
+        <v>771.5329150224239</v>
       </c>
       <c r="S3">
-        <v>0.5516284237983912</v>
+        <v>0.5330052023898023</v>
       </c>
       <c r="T3">
-        <v>0.5516284237983912</v>
+        <v>0.5330052023898023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.08864570572383</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H4">
-        <v>3.08864570572383</v>
+        <v>11.334982</v>
       </c>
       <c r="I4">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J4">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.85830475679725</v>
+        <v>0.03546733333333333</v>
       </c>
       <c r="N4">
-        <v>1.85830475679725</v>
+        <v>0.106402</v>
       </c>
       <c r="O4">
-        <v>0.06961533750184838</v>
+        <v>0.001314026205339509</v>
       </c>
       <c r="P4">
-        <v>0.06961533750184838</v>
+        <v>0.001314026205339509</v>
       </c>
       <c r="Q4">
-        <v>5.739645007007993</v>
+        <v>0.1340071949737778</v>
       </c>
       <c r="R4">
-        <v>5.739645007007993</v>
+        <v>1.206064754764</v>
       </c>
       <c r="S4">
-        <v>0.04520523374151194</v>
+        <v>0.0008331968425345916</v>
       </c>
       <c r="T4">
-        <v>0.04520523374151194</v>
+        <v>0.0008331968425345917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.09106225476578</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H5">
-        <v>1.09106225476578</v>
+        <v>11.334982</v>
       </c>
       <c r="I5">
-        <v>0.2293851103889591</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J5">
-        <v>0.2293851103889591</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.15915482617023</v>
+        <v>1.99295</v>
       </c>
       <c r="N5">
-        <v>2.15915482617023</v>
+        <v>5.97885</v>
       </c>
       <c r="O5">
-        <v>0.08088570585249001</v>
+        <v>0.07383663444102671</v>
       </c>
       <c r="P5">
-        <v>0.08088570585249001</v>
+        <v>0.07383663444102673</v>
       </c>
       <c r="Q5">
-        <v>2.355772333029707</v>
+        <v>7.530017458966666</v>
       </c>
       <c r="R5">
-        <v>2.355772333029707</v>
+        <v>67.7701571307</v>
       </c>
       <c r="S5">
-        <v>0.01855397656586229</v>
+        <v>0.04681828294569598</v>
       </c>
       <c r="T5">
-        <v>0.01855397656586229</v>
+        <v>0.04681828294569598</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.09106225476578</v>
+        <v>1.390555</v>
       </c>
       <c r="H6">
-        <v>1.09106225476578</v>
+        <v>4.171665</v>
       </c>
       <c r="I6">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J6">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.6764389670167</v>
+        <v>2.274082666666667</v>
       </c>
       <c r="N6">
-        <v>22.6764389670167</v>
+        <v>6.822248</v>
       </c>
       <c r="O6">
-        <v>0.8494989566456617</v>
+        <v>0.08425229461217887</v>
       </c>
       <c r="P6">
-        <v>0.8494989566456617</v>
+        <v>0.08425229461217888</v>
       </c>
       <c r="Q6">
-        <v>24.74140662941184</v>
+        <v>3.162237022546666</v>
       </c>
       <c r="R6">
-        <v>24.74140662941184</v>
+        <v>28.46013320292</v>
       </c>
       <c r="S6">
-        <v>0.1948624119454707</v>
+        <v>0.01966137641376223</v>
       </c>
       <c r="T6">
-        <v>0.1948624119454707</v>
+        <v>0.01966137641376223</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.09106225476578</v>
+        <v>1.390555</v>
       </c>
       <c r="H7">
-        <v>1.09106225476578</v>
+        <v>4.171665</v>
       </c>
       <c r="I7">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J7">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.85830475679725</v>
+        <v>22.688844</v>
       </c>
       <c r="N7">
-        <v>1.85830475679725</v>
+        <v>68.066532</v>
       </c>
       <c r="O7">
-        <v>0.06961533750184838</v>
+        <v>0.8405970447414548</v>
       </c>
       <c r="P7">
-        <v>0.06961533750184838</v>
+        <v>0.8405970447414549</v>
       </c>
       <c r="Q7">
-        <v>2.027526177993182</v>
+        <v>31.55008546842</v>
       </c>
       <c r="R7">
-        <v>2.027526177993182</v>
+        <v>283.95076921578</v>
       </c>
       <c r="S7">
-        <v>0.01596872187762613</v>
+        <v>0.1961643298266777</v>
       </c>
       <c r="T7">
-        <v>0.01596872187762613</v>
+        <v>0.1961643298266777</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.226073818979451</v>
+        <v>1.390555</v>
       </c>
       <c r="H8">
-        <v>0.226073818979451</v>
+        <v>4.171665</v>
       </c>
       <c r="I8">
-        <v>0.04752979740261232</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J8">
-        <v>0.04752979740261232</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.15915482617023</v>
+        <v>0.03546733333333333</v>
       </c>
       <c r="N8">
-        <v>2.15915482617023</v>
+        <v>0.106402</v>
       </c>
       <c r="O8">
-        <v>0.08088570585249001</v>
+        <v>0.001314026205339509</v>
       </c>
       <c r="P8">
-        <v>0.08088570585249001</v>
+        <v>0.001314026205339509</v>
       </c>
       <c r="Q8">
-        <v>0.4881283773202166</v>
+        <v>0.04931927770333333</v>
       </c>
       <c r="R8">
-        <v>0.4881283773202166</v>
+        <v>0.44387349933</v>
       </c>
       <c r="S8">
-        <v>0.003844481211936144</v>
+        <v>0.0003066452250309764</v>
       </c>
       <c r="T8">
-        <v>0.003844481211936144</v>
+        <v>0.0003066452250309765</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.226073818979451</v>
+        <v>1.390555</v>
       </c>
       <c r="H9">
-        <v>0.226073818979451</v>
+        <v>4.171665</v>
       </c>
       <c r="I9">
-        <v>0.04752979740261232</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J9">
-        <v>0.04752979740261232</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.6764389670167</v>
+        <v>1.99295</v>
       </c>
       <c r="N9">
-        <v>22.6764389670167</v>
+        <v>5.97885</v>
       </c>
       <c r="O9">
-        <v>0.8494989566456617</v>
+        <v>0.07383663444102671</v>
       </c>
       <c r="P9">
-        <v>0.8494989566456617</v>
+        <v>0.07383663444102673</v>
       </c>
       <c r="Q9">
-        <v>5.126549158127903</v>
+        <v>2.77130658725</v>
       </c>
       <c r="R9">
-        <v>5.126549158127903</v>
+        <v>24.94175928525</v>
       </c>
       <c r="S9">
-        <v>0.04037651330309885</v>
+        <v>0.017230745697228</v>
       </c>
       <c r="T9">
-        <v>0.04037651330309885</v>
+        <v>0.017230745697228</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.226073818979451</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H10">
-        <v>0.226073818979451</v>
+        <v>0.754508</v>
       </c>
       <c r="I10">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J10">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.85830475679725</v>
+        <v>2.274082666666667</v>
       </c>
       <c r="N10">
-        <v>1.85830475679725</v>
+        <v>6.822248</v>
       </c>
       <c r="O10">
-        <v>0.06961533750184838</v>
+        <v>0.08425229461217887</v>
       </c>
       <c r="P10">
-        <v>0.06961533750184838</v>
+        <v>0.08425229461217888</v>
       </c>
       <c r="Q10">
-        <v>0.4201140531968342</v>
+        <v>0.5719378548871111</v>
       </c>
       <c r="R10">
-        <v>0.4201140531968342</v>
+        <v>5.147440693984</v>
       </c>
       <c r="S10">
-        <v>0.003308802887577334</v>
+        <v>0.003556053948530122</v>
       </c>
       <c r="T10">
-        <v>0.003308802887577334</v>
+        <v>0.003556053948530122</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.350683245290871</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H11">
-        <v>0.350683245290871</v>
+        <v>0.754508</v>
       </c>
       <c r="I11">
-        <v>0.07372770397035994</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J11">
-        <v>0.07372770397035994</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.15915482617023</v>
+        <v>22.688844</v>
       </c>
       <c r="N11">
-        <v>2.15915482617023</v>
+        <v>68.066532</v>
       </c>
       <c r="O11">
-        <v>0.08088570585249001</v>
+        <v>0.8405970447414548</v>
       </c>
       <c r="P11">
-        <v>0.08088570585249001</v>
+        <v>0.8405970447414549</v>
       </c>
       <c r="Q11">
-        <v>0.7571794215268227</v>
+        <v>5.706304769583999</v>
       </c>
       <c r="R11">
-        <v>0.7571794215268227</v>
+        <v>51.356742926256</v>
       </c>
       <c r="S11">
-        <v>0.005963517376525994</v>
+        <v>0.03547925256914611</v>
       </c>
       <c r="T11">
-        <v>0.005963517376525994</v>
+        <v>0.03547925256914611</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.350683245290871</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H12">
-        <v>0.350683245290871</v>
+        <v>0.754508</v>
       </c>
       <c r="I12">
-        <v>0.07372770397035994</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J12">
-        <v>0.07372770397035994</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>22.6764389670167</v>
+        <v>0.03546733333333333</v>
       </c>
       <c r="N12">
-        <v>22.6764389670167</v>
+        <v>0.106402</v>
       </c>
       <c r="O12">
-        <v>0.8494989566456617</v>
+        <v>0.001314026205339509</v>
       </c>
       <c r="P12">
-        <v>0.8494989566456617</v>
+        <v>0.001314026205339509</v>
       </c>
       <c r="Q12">
-        <v>7.952247208593784</v>
+        <v>0.008920128912888887</v>
       </c>
       <c r="R12">
-        <v>7.952247208593784</v>
+        <v>0.08028116021599999</v>
       </c>
       <c r="S12">
-        <v>0.06263160759870097</v>
+        <v>5.546137464242023E-05</v>
       </c>
       <c r="T12">
-        <v>0.06263160759870097</v>
+        <v>5.546137464242023E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2515026666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.754508</v>
+      </c>
+      <c r="I13">
+        <v>0.04220720592713788</v>
+      </c>
+      <c r="J13">
+        <v>0.04220720592713787</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.99295</v>
+      </c>
+      <c r="N13">
+        <v>5.97885</v>
+      </c>
+      <c r="O13">
+        <v>0.07383663444102671</v>
+      </c>
+      <c r="P13">
+        <v>0.07383663444102673</v>
+      </c>
+      <c r="Q13">
+        <v>0.5012322395333333</v>
+      </c>
+      <c r="R13">
+        <v>4.5110901558</v>
+      </c>
+      <c r="S13">
+        <v>0.003116438034819216</v>
+      </c>
+      <c r="T13">
+        <v>0.003116438034819216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1830476666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.549143</v>
+      </c>
+      <c r="I14">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="J14">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.274082666666667</v>
+      </c>
+      <c r="N14">
+        <v>6.822248</v>
+      </c>
+      <c r="O14">
+        <v>0.08425229461217887</v>
+      </c>
+      <c r="P14">
+        <v>0.08425229461217888</v>
+      </c>
+      <c r="Q14">
+        <v>0.4162655259404445</v>
+      </c>
+      <c r="R14">
+        <v>3.746389733464</v>
+      </c>
+      <c r="S14">
+        <v>0.002588152986393355</v>
+      </c>
+      <c r="T14">
+        <v>0.002588152986393355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1830476666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.549143</v>
+      </c>
+      <c r="I15">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="J15">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>22.688844</v>
+      </c>
+      <c r="N15">
+        <v>68.066532</v>
+      </c>
+      <c r="O15">
+        <v>0.8405970447414548</v>
+      </c>
+      <c r="P15">
+        <v>0.8405970447414549</v>
+      </c>
+      <c r="Q15">
+        <v>4.153139953564001</v>
+      </c>
+      <c r="R15">
+        <v>37.378259582076</v>
+      </c>
+      <c r="S15">
+        <v>0.02582236794517567</v>
+      </c>
+      <c r="T15">
+        <v>0.02582236794517567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1830476666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.549143</v>
+      </c>
+      <c r="I16">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="J16">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03546733333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.106402</v>
+      </c>
+      <c r="O16">
+        <v>0.001314026205339509</v>
+      </c>
+      <c r="P16">
+        <v>0.001314026205339509</v>
+      </c>
+      <c r="Q16">
+        <v>0.006492212609555556</v>
+      </c>
+      <c r="R16">
+        <v>0.058429913486</v>
+      </c>
+      <c r="S16">
+        <v>4.036567624897625E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.036567624897625E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1830476666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.549143</v>
+      </c>
+      <c r="I17">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="J17">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.99295</v>
+      </c>
+      <c r="N17">
+        <v>5.97885</v>
+      </c>
+      <c r="O17">
+        <v>0.07383663444102671</v>
+      </c>
+      <c r="P17">
+        <v>0.07383663444102673</v>
+      </c>
+      <c r="Q17">
+        <v>0.3648048472833333</v>
+      </c>
+      <c r="R17">
+        <v>3.28324362555</v>
+      </c>
+      <c r="S17">
+        <v>0.002268193487351663</v>
+      </c>
+      <c r="T17">
+        <v>0.002268193487351663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.065986</v>
+      </c>
+      <c r="I18">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J18">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.274082666666667</v>
+      </c>
+      <c r="N18">
+        <v>6.822248</v>
+      </c>
+      <c r="O18">
+        <v>0.08425229461217887</v>
+      </c>
+      <c r="P18">
+        <v>0.08425229461217888</v>
+      </c>
+      <c r="Q18">
+        <v>0.8080467618364445</v>
+      </c>
+      <c r="R18">
+        <v>7.272420856528001</v>
+      </c>
+      <c r="S18">
+        <v>0.005024073600780683</v>
+      </c>
+      <c r="T18">
+        <v>0.005024073600780683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.065986</v>
+      </c>
+      <c r="I19">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J19">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>22.688844</v>
+      </c>
+      <c r="N19">
+        <v>68.066532</v>
+      </c>
+      <c r="O19">
+        <v>0.8405970447414548</v>
+      </c>
+      <c r="P19">
+        <v>0.8405970447414549</v>
+      </c>
+      <c r="Q19">
+        <v>8.061996686728</v>
+      </c>
+      <c r="R19">
+        <v>72.557970180552</v>
+      </c>
+      <c r="S19">
+        <v>0.05012589201065303</v>
+      </c>
+      <c r="T19">
+        <v>0.05012589201065303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.350683245290871</v>
-      </c>
-      <c r="H13">
-        <v>0.350683245290871</v>
-      </c>
-      <c r="I13">
-        <v>0.07372770397035994</v>
-      </c>
-      <c r="J13">
-        <v>0.07372770397035994</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.85830475679725</v>
-      </c>
-      <c r="N13">
-        <v>1.85830475679725</v>
-      </c>
-      <c r="O13">
-        <v>0.06961533750184838</v>
-      </c>
-      <c r="P13">
-        <v>0.06961533750184838</v>
-      </c>
-      <c r="Q13">
-        <v>0.6516763428531225</v>
-      </c>
-      <c r="R13">
-        <v>0.6516763428531225</v>
-      </c>
-      <c r="S13">
-        <v>0.005132578995132974</v>
-      </c>
-      <c r="T13">
-        <v>0.005132578995132974</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.065986</v>
+      </c>
+      <c r="I20">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J20">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03546733333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.106402</v>
+      </c>
+      <c r="O20">
+        <v>0.001314026205339509</v>
+      </c>
+      <c r="P20">
+        <v>0.001314026205339509</v>
+      </c>
+      <c r="Q20">
+        <v>0.01260256026355555</v>
+      </c>
+      <c r="R20">
+        <v>0.113423042372</v>
+      </c>
+      <c r="S20">
+        <v>7.835708688254461E-05</v>
+      </c>
+      <c r="T20">
+        <v>7.835708688254461E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.065986</v>
+      </c>
+      <c r="I21">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J21">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.99295</v>
+      </c>
+      <c r="N21">
+        <v>5.97885</v>
+      </c>
+      <c r="O21">
+        <v>0.07383663444102671</v>
+      </c>
+      <c r="P21">
+        <v>0.07383663444102673</v>
+      </c>
+      <c r="Q21">
+        <v>0.7081522662333333</v>
+      </c>
+      <c r="R21">
+        <v>6.3733703961</v>
+      </c>
+      <c r="S21">
+        <v>0.004402974275931861</v>
+      </c>
+      <c r="T21">
+        <v>0.004402974275931861</v>
       </c>
     </row>
   </sheetData>
